--- a/Income/MDLZ_inc.xlsx
+++ b/Income/MDLZ_inc.xlsx
@@ -2150,16 +2150,16 @@
         <v>0.384</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3862</v>
+        <v>0.3889</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3884</v>
+        <v>0.3911</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3938</v>
+        <v>0.3965</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3969</v>
+        <v>0.3996</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3936</v>
@@ -2531,16 +2531,16 @@
         <v>0.1344</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1199</v>
+        <v>0.1222</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1332</v>
+        <v>0.1356</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1424</v>
+        <v>0.1447</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1496</v>
+        <v>0.1519</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.1517</v>
@@ -4277,16 +4277,16 @@
         <v>0.2041</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.199</v>
+        <v>0.1945</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1904</v>
+        <v>0.1859</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.1945</v>
+        <v>0.19</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.1936</v>
+        <v>0.1892</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.186</v>
